--- a/Jeux de données/SFCC/New_account/jdd_New_account.xlsx
+++ b/Jeux de données/SFCC/New_account/jdd_New_account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de données/SFCC/New_account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A69149A-07CA-244A-9185-0D2A0DCB3009}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9E697AA-41B4-D34D-A446-6A9AF2AF5BA7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11460" windowWidth="24080" windowHeight="7820" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -68,9 +68,6 @@
     <t>UC3_UAT</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>${playTest}</t>
   </si>
   <si>
@@ -83,23 +80,71 @@
     <t>${salutation}</t>
   </si>
   <si>
-    <t>${recevoir-Infos}</t>
-  </si>
-  <si>
-    <t>${ClubClarins}</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>${country}</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>UC4_UAT</t>
+  </si>
+  <si>
+    <t>UC5_UAT</t>
+  </si>
+  <si>
+    <t>UC6_UAT</t>
+  </si>
+  <si>
+    <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsit-Site</t>
+  </si>
+  <si>
+    <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsuk-Site</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsch-Site</t>
+  </si>
+  <si>
+    <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsbnl-Site</t>
+  </si>
+  <si>
+    <t>BNL</t>
+  </si>
+  <si>
+    <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsfr-Site</t>
+  </si>
+  <si>
+    <t>${emailOption}</t>
+  </si>
+  <si>
+    <t>${isLoyaltyMember}</t>
+  </si>
+  <si>
+    <t>${regions}</t>
+  </si>
+  <si>
+    <t>websiteURL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,17 +158,49 @@
       <name val="Aptos Narrow (Corps)"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Corps)"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -188,59 +265,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -611,187 +682,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="107" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>16</v>
+      <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>13</v>
+    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F4">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="K2 B2:J7">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G4">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:K4">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="M6" r:id="rId1" xr:uid="{EAACA0BD-0D20-8640-B9A5-07D6AC711B33}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{BE2F3958-A629-ED4F-B4B6-C5FA7A4881FB}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{AE50D64A-3324-FE43-96EC-8B3B24276A5A}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{C205675A-61A0-A04C-88E6-DCF04EAADE20}"/>
+    <hyperlink ref="M4" r:id="rId5" xr:uid="{A74F57A2-11F3-5F4E-9DBC-7B98598B2858}"/>
+    <hyperlink ref="M7" r:id="rId6" xr:uid="{84372582-4CAD-C14E-A665-16D44A3F402E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Jeux de données/SFCC/New_account/jdd_New_account.xlsx
+++ b/Jeux de données/SFCC/New_account/jdd_New_account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de données/SFCC/New_account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9E697AA-41B4-D34D-A446-6A9AF2AF5BA7}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B96D694-0C05-1B47-9F41-31CBF17CA4B6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -137,14 +137,14 @@
     <t>${regions}</t>
   </si>
   <si>
-    <t>websiteURL</t>
+    <t>***websiteURL***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,13 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
@@ -190,15 +183,29 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Display"/>
       <scheme val="major"/>
     </font>
     <font>
       <u/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="10"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Display"/>
       <scheme val="major"/>
     </font>
@@ -269,42 +276,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,64 +693,65 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="107" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="92.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -780,8 +789,8 @@
       <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -790,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -816,11 +825,11 @@
       <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -829,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -855,11 +864,11 @@
       <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -868,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -894,11 +903,11 @@
       <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -907,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
@@ -933,11 +942,11 @@
       <c r="J6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -946,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -972,30 +981,30 @@
       <c r="J7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="13" t="s">
+      <c r="L7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2 B2:J7">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+  <conditionalFormatting sqref="K2 B2:J7">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
